--- a/maj-IG-JDV_J264/ig/StructureDefinition-sdo-task.xlsx
+++ b/maj-IG-JDV_J264/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T12:40:28+00:00</t>
+    <t>2024-06-18T13:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1856,7 +1856,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-ModePriseEnCharge/FHIR/JDV_JXX-ModePriseEnCharge/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModePriseEnCharge-MDPH/FHIR/JDV_J264-ModePriseEnCharge-MDPH/</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
